--- a/src/document/exel/vehicles.xlsx
+++ b/src/document/exel/vehicles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexp\Desktop\archivosMuestra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CFD86C-2309-4C6F-A65F-D9496F1EA6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58247AB4-2846-4594-9996-9C11CDB78D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{6F407B60-F454-4159-9661-67066E9BCB5F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7A7DEBA0-D137-4077-8B03-589BF41ACC47}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
-  <si>
-    <t>Pedro Vera</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+  <si>
+    <t>Placa</t>
+  </si>
+  <si>
+    <t>Nombre</t>
   </si>
   <si>
     <t>DANIEL GONSALEZ</t>
@@ -39,7 +42,7 @@
     <t>Federico Mite</t>
   </si>
   <si>
-    <t>1306058338</t>
+    <t>Identificacion</t>
   </si>
   <si>
     <t>0803192665</t>
@@ -51,58 +54,44 @@
     <t>0801095746</t>
   </si>
   <si>
+    <t xml:space="preserve">Activo (true = si ) (false = no) </t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
-    <t>Placa</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Identificacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activo (true = si ) (false = no) </t>
-  </si>
-  <si>
     <t>Ruta</t>
   </si>
   <si>
-    <t>Solo elimine los campos que estan de color rojo y rellene con la informacion a cargar</t>
+    <t>EBA-2376</t>
+  </si>
+  <si>
+    <t>PATRON</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>MV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -128,14 +117,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,136 +432,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B550ED-82BA-4E70-9233-4B357160AB46}">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB37512-CCD9-4A13-BC31-C97A3CDCA8BE}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:I9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>1708997307</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2">
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G4:I9"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
